--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1325774.792574701</v>
+        <v>1323439.681372721</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>196.6997841156793</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>48.77025313632519</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>146.1331223455082</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>17.8805622902187</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>244.0615449014509</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>63.59441785694172</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.95845526090646</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1187,16 +1187,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>23.79925355567458</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>297.2669997576634</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.33835225137435</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>122.8327676896536</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>27.77749086859478</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>9.146142788179425</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>16.92025364381838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>40.3626499519043</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>110.0177171766856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>180.3302385618281</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>67.0077147539439</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819354</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.839588425942038</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>15.09910835322263</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646511</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360222</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.637639419811</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.37194081306</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>672.583688214816</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>261.5977834252084</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>249.9334371899014</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400156</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400156</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400156</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424344</v>
+        <v>1926.050536840746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297105</v>
+        <v>801.9449557744473</v>
       </c>
       <c r="M3" t="n">
-        <v>1420.589954256325</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1807.87508285327</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.945518029432</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2387.128251861729</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.7172435647353</v>
+        <v>1757.604581730086</v>
       </c>
       <c r="C4" t="n">
-        <v>620.7172435647353</v>
+        <v>1588.66839880218</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>1588.66839880218</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>1440.755305219786</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>1293.865357721876</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>977.1399948936607</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2414.730113909743</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>2414.730113909743</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>2160.045625703856</v>
       </c>
       <c r="W4" t="n">
-        <v>841.5098227082655</v>
+        <v>2160.045625703856</v>
       </c>
       <c r="X4" t="n">
-        <v>841.5098227082655</v>
+        <v>2160.045625703856</v>
       </c>
       <c r="Y4" t="n">
-        <v>620.7172435647353</v>
+        <v>1939.253046560326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>797.0848490996759</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C5" t="n">
-        <v>428.1223321592641</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>720.4238506246863</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>720.4238506246863</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>309.4379458350788</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>297.7735995997717</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2498.102542686072</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2498.102542686072</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2244.521481950252</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1913.458594606682</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1560.689939336567</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>1187.224181075488</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y5" t="n">
-        <v>797.0848490996759</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.0370443974452</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>614.1008614695384</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>463.9842220572026</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>316.0711284748095</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>169.1811809768991</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4753,22 +4753,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1413.467639269232</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1185.478088371215</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>964.685509227685</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.767278738087</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2378.004821452004</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>1007.761086342349</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>838.8249034144422</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>688.7082640021065</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>540.7951704197134</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>393.905222921803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>226.202386296522</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>79.98519951437973</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1410.202130316119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1189.409551172589</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,16 +5060,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991042</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711973</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5239,10 +5239,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1087.256396642634</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>866.4638174991042</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,10 +5279,10 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5297,19 +5297,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5479,7 +5479,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6081,10 +6081,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.259960360355</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1018.438627038652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>849.5024441107454</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>699.3858046984096</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1938.2863919474</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1648.869221910439</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1420.879671012422</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.087091868892</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466574</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2445.104913453047</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2445.104913453047</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2225.503448475988</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1936.428221820186</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820186</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783225</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.021500885208</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741678</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,28 +7187,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770323</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C43" t="n">
-        <v>803.2707707770323</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D43" t="n">
-        <v>653.1541313646966</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>505.2410377823035</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>358.3510902843931</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>191.154990999273</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.70136564882</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072721</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>211.0329012241556</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>35.91627445172543</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>102.8768876993835</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>117.6435571543365</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>139.4693302300329</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>36.41624546988362</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631857005</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>45.37941682720904</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>79.42624789262527</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>64.53565828417962</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25451,7 +25451,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>125.1956044930012</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>45.44677382459304</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936147.8611886671</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886674</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936147.8611886675</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="16">
@@ -26317,13 +26317,13 @@
         <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140035</v>
@@ -26335,25 +26335,25 @@
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="M2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,16 +26418,16 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26436,22 +26436,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744235</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850586.6310741776</v>
+        <v>-850586.6310741778</v>
       </c>
       <c r="C6" t="n">
-        <v>264165.1525017422</v>
+        <v>264165.1525017426</v>
       </c>
       <c r="D6" t="n">
-        <v>104149.6897537431</v>
+        <v>104149.6897537433</v>
       </c>
       <c r="E6" t="n">
-        <v>49025.71179099719</v>
+        <v>48990.97386556113</v>
       </c>
       <c r="F6" t="n">
-        <v>374438.1735983522</v>
+        <v>374403.4356729167</v>
       </c>
       <c r="G6" t="n">
-        <v>374438.1735983521</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="H6" t="n">
-        <v>374438.1735983521</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="I6" t="n">
-        <v>374438.1735983522</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="J6" t="n">
-        <v>206832.9957883697</v>
+        <v>206798.2578629339</v>
       </c>
       <c r="K6" t="n">
-        <v>374438.173598352</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="L6" t="n">
-        <v>326144.2035901615</v>
+        <v>326109.4656647257</v>
       </c>
       <c r="M6" t="n">
-        <v>289383.1456628405</v>
+        <v>289348.4077374046</v>
       </c>
       <c r="N6" t="n">
-        <v>374438.1735983522</v>
+        <v>374403.4356729163</v>
       </c>
       <c r="O6" t="n">
-        <v>374438.1735983521</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="P6" t="n">
-        <v>374438.1735983522</v>
+        <v>374403.4356729162</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,22 +26984,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>104.3187684467261</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>278.9820053338097</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>74.61557365170373</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>268.6424360463723</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>56.95700766095445</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>59.85779754185266</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>154.3481447838977</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>303.9530049144603</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>51.97396895974958</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.01406815846374</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-1.043320350748088e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-8.455458555545192e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>640.584832100039</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.39699678258</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
